--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 5 (15–17 de septiembre 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 5 (15–17 de septiembre 2025).xlsx
@@ -596,7 +596,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>45915.0</v>
@@ -640,7 +640,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>45915.0</v>
@@ -662,7 +662,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>45915.0</v>
@@ -684,7 +684,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>45915.0</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>45916.0</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>45916.0</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>45916.0</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>45916.0</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>45917.0</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>45917.0</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>45917.0</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>45917.0</v>
